--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_8.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4660EF-1111-FB47-8F10-C457BAD1BDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488371FB-1F50-954B-A208-23C5522CA63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>FREQ_01</t>
+  </si>
+  <si>
+    <t>STUDY_USE</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,7 +587,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,8 +642,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -684,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -728,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -772,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -816,7 +822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -860,7 +866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -904,7 +910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -948,7 +954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1023,21 +1029,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -1240,32 +1231,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1282,4 +1263,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_8.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488371FB-1F50-954B-A208-23C5522CA63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC212995-E218-1B47-91D4-9A4CF58AF092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>STUDY_USE</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="T3" sqref="T3:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,7 +590,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +648,11 @@
       <c r="S1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -689,8 +695,11 @@
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -733,8 +742,11 @@
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -777,8 +789,11 @@
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="T4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -821,8 +836,11 @@
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="T5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -865,8 +883,11 @@
       <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -909,8 +930,11 @@
       <c r="Q7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="T7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -953,8 +977,11 @@
       <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="T8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -996,6 +1023,9 @@
       </c>
       <c r="Q9" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1029,6 +1059,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -1231,22 +1276,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1263,29 +1318,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_8.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC212995-E218-1B47-91D4-9A4CF58AF092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998DED54-099B-8B4C-8175-72BCAF9F1999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -189,12 +189,6 @@
   </si>
   <si>
     <t>FREQ_01</t>
-  </si>
-  <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -571,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T9"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,7 +584,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,14 +639,8 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -695,11 +683,8 @@
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -742,11 +727,8 @@
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -789,11 +771,8 @@
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -836,11 +815,8 @@
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -883,11 +859,8 @@
       <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -930,11 +903,8 @@
       <c r="Q7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -977,11 +947,8 @@
       <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1023,9 +990,6 @@
       </c>
       <c r="Q9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1059,21 +1023,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -1276,32 +1225,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1318,4 +1257,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>